--- a/Funcionalidades do AD.xlsx
+++ b/Funcionalidades do AD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renan\Desktop\COISAS DO TCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renan\Desktop\UNITY PROJETO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5099E8F0-7D98-48F9-8110-86DD81D03175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59DBDCE-E44E-49E4-98F3-534A0C7491E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,7 +1169,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">

--- a/Funcionalidades do AD.xlsx
+++ b/Funcionalidades do AD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renan\Desktop\UNITY PROJETO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59DBDCE-E44E-49E4-98F3-534A0C7491E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D067F6-3BBA-4E89-AF5A-7C06EBC321C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -622,7 +622,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,7 +858,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -936,7 +936,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1014,7 +1014,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">

--- a/Funcionalidades do AD.xlsx
+++ b/Funcionalidades do AD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renan\Desktop\UNITY PROJETO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D067F6-3BBA-4E89-AF5A-7C06EBC321C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0677A4-DED7-4E6C-85FF-17A5BD20D575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
   <si>
     <t>Requisito Funcional 01</t>
   </si>
@@ -335,10 +335,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,34 +621,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
       <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
       <c r="P1" s="1" t="s">
         <v>57</v>
       </c>
@@ -1272,28 +1272,58 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
+      <c r="P25" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:O24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:O25"/>
-    <mergeCell ref="F9:O9"/>
-    <mergeCell ref="F10:O10"/>
-    <mergeCell ref="F11:O11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F1:O1"/>
-    <mergeCell ref="F2:O2"/>
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="F4:O4"/>
-    <mergeCell ref="F5:O5"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:O22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:O23"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:O20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:O21"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:O18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:O19"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:O16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:O17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:O14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:O15"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="F12:O12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:O13"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="F6:O6"/>
     <mergeCell ref="F7:O7"/>
     <mergeCell ref="F8:O8"/>
@@ -1310,49 +1340,22 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="F12:O12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:O13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:O14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:O15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:O16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:O17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:O18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:O19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:O20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:O21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:O22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:O23"/>
+    <mergeCell ref="F1:O1"/>
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="F4:O4"/>
+    <mergeCell ref="F5:O5"/>
+    <mergeCell ref="F9:O9"/>
+    <mergeCell ref="F10:O10"/>
+    <mergeCell ref="F11:O11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:O24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:O25"/>
   </mergeCells>
   <conditionalFormatting sqref="A26:C1048576 A1">
     <cfRule type="dataBar" priority="13">

--- a/Funcionalidades do AD.xlsx
+++ b/Funcionalidades do AD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renan\Desktop\UNITY PROJETO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0677A4-DED7-4E6C-85FF-17A5BD20D575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700C0C25-D3F8-4897-B693-E19FBA17A683}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,10 +335,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,34 +621,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
       <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
       <c r="P1" s="1" t="s">
         <v>57</v>
       </c>
@@ -936,7 +936,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1040,7 +1040,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1143,7 +1143,7 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -1281,49 +1281,22 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:O22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:O23"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:O20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:O21"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:O18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:O19"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:O16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:O17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:O14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:O15"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="F12:O12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:O13"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:O24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:O25"/>
+    <mergeCell ref="F9:O9"/>
+    <mergeCell ref="F10:O10"/>
+    <mergeCell ref="F11:O11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F1:O1"/>
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="F4:O4"/>
+    <mergeCell ref="F5:O5"/>
     <mergeCell ref="F6:O6"/>
     <mergeCell ref="F7:O7"/>
     <mergeCell ref="F8:O8"/>
@@ -1340,22 +1313,49 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="F1:O1"/>
-    <mergeCell ref="F2:O2"/>
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="F4:O4"/>
-    <mergeCell ref="F5:O5"/>
-    <mergeCell ref="F9:O9"/>
-    <mergeCell ref="F10:O10"/>
-    <mergeCell ref="F11:O11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:O24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:O25"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="F12:O12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:O13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:O14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:O15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:O16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:O17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:O18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:O19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:O20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:O21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:O22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:O23"/>
   </mergeCells>
   <conditionalFormatting sqref="A26:C1048576 A1">
     <cfRule type="dataBar" priority="13">
